--- a/Logbook_Ruben_Flinterman_1037046.xlsx
+++ b/Logbook_Ruben_Flinterman_1037046.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rwfli\Documents\1. Studie\INF\Challengeweeks\Challengeweek 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74B2FBF-95FB-4079-85B1-6AE588F27EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDD3624-03C2-435A-9C66-E6EB40C9A7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
   <si>
     <t>🤔 Why keep a logbook?</t>
   </si>
@@ -369,27 +369,49 @@
     <t>Trying to intergrate dynamic map colision into game</t>
   </si>
   <si>
-    <t>This is an interesting issue. As of now it doesn't work yet, but it's a gold mine for learning new stuff!</t>
-  </si>
-  <si>
     <t>Tweaked some small stuff to make the game more pretty</t>
   </si>
   <si>
     <t>Editing stats.py</t>
   </si>
   <si>
-    <t>Delving into reinforcement learning to try and create at least a demo for what the cpu would have looked like in the game</t>
+    <t>Delving into stuff like reinforcement learning to try and create at least a demo for what the cpu would have looked like in the game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I got a part of the CPU working but it's not good enough to really intergrate it into the game. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The multiplayer shares stuff like a gameover screen (track/respawn detection) and the (player 1) camera. It's not the best but you can definetly play with a friend! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is an interesting issue. As of now it doesn't work yet, but it's a gold mine for learning new stuff! - Edit: it works!!! Learned a bit how OpenCV works in the process! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added waluigi sprite. </t>
+  </si>
+  <si>
+    <t>Took longer than I waten because I needed to photoshop it</t>
+  </si>
+  <si>
+    <t>No CPU but we do want a solid game so I quickly added multiplayer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -570,63 +592,66 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="9" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="10" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="46" fontId="9" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="10" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -634,7 +659,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1216,8 +1241,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1800615</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76477</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>457477</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1260,8 +1285,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>71487</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>452487</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1305,7 +1330,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>334322</xdr:rowOff>
+      <xdr:rowOff>143822</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1330,6 +1355,94 @@
         <a:xfrm>
           <a:off x="17505259" y="14445213"/>
           <a:ext cx="2135291" cy="2643584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>11389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC16DA3-3FB5-DD4E-10BE-7DA7EC7B54F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10848975" y="16549323"/>
+          <a:ext cx="4505325" cy="1940566"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>384107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>67623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5CDF2E0-659C-9E7F-AE61-82A2A3FC8119}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10848974" y="18472082"/>
+          <a:ext cx="4457701" cy="2617216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2612,8 +2725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2654,20 +2767,20 @@
       <c r="F2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
     </row>
     <row r="3" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
@@ -2690,7 +2803,7 @@
       </c>
       <c r="F4" s="23">
         <f>SUM(D4:D97)</f>
-        <v>2.395833333333333</v>
+        <v>2.7291666666666661</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -3488,7 +3601,7 @@
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
     </row>
-    <row r="34" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>45262</v>
       </c>
@@ -3498,8 +3611,8 @@
       <c r="D34" s="15">
         <v>0.125</v>
       </c>
-      <c r="E34" s="25" t="s">
-        <v>84</v>
+      <c r="E34" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
@@ -3519,14 +3632,14 @@
       <c r="B35" s="13">
         <v>45263</v>
       </c>
-      <c r="C35" s="27" t="s">
-        <v>85</v>
+      <c r="C35" s="26" t="s">
+        <v>84</v>
       </c>
       <c r="D35" s="15">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E35" s="27" t="s">
-        <v>86</v>
+      <c r="E35" s="26" t="s">
+        <v>85</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -3546,11 +3659,15 @@
       <c r="B36" s="13">
         <v>45263</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="E36" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="14"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -3565,11 +3682,19 @@
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
     </row>
-    <row r="37" spans="2:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="14"/>
+    <row r="37" spans="2:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="B37" s="13">
+        <v>45263</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>88</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -3585,10 +3710,18 @@
       <c r="R37" s="12"/>
     </row>
     <row r="38" spans="2:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="14"/>
+      <c r="B38" s="13">
+        <v>45263</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -6807,15 +6940,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ABCCEE9817AF674CAD101E6D861B9A46" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="946de471897b9ab3b9496c906eacb5e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="40058f32-786b-4391-91be-af0d896640a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a00be7a65770b509424fc2b063afb2cd" ns2:_="">
     <xsd:import namespace="40058f32-786b-4391-91be-af0d896640a5"/>
@@ -6953,6 +7077,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6960,14 +7093,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78E03D4F-D06B-40C1-A53D-F1DEB199C8A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4BE0F66-9181-4FFE-AE37-08F456A06E70}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6985,6 +7110,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78E03D4F-D06B-40C1-A53D-F1DEB199C8A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14BB4D6E-C856-4503-A5F5-487F247D347A}">
   <ds:schemaRefs>
